--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8 - Copy.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8 - Copy.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -425,7 +425,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
